--- a/obsidian-notes/spreadsheets/us-elections.xlsx
+++ b/obsidian-notes/spreadsheets/us-elections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4179229009c49077/fxn/sieyes-land/Head lists/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4996" documentId="8_{9B278B50-AF55-4FFF-95B3-DBDF332664F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D07E04E-9760-46A6-A200-1D091FE96E09}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40465930-5050-4C46-B676-43F6F0AE387E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" tabRatio="774" firstSheet="9" activeTab="18" xr2:uid="{59FA0D2B-AA2F-47E7-9530-8606E48D7FD7}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" tabRatio="774" activeTab="8" xr2:uid="{59FA0D2B-AA2F-47E7-9530-8606E48D7FD7}"/>
   </bookViews>
   <sheets>
     <sheet name="1808" sheetId="18" r:id="rId1"/>
@@ -34,7 +34,6 @@
     <sheet name="dc vs balt" sheetId="20" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="144">
   <si>
     <t>Mass.</t>
   </si>
@@ -485,6 +484,9 @@
   <si>
     <t>Total w/ new states</t>
   </si>
+  <si>
+    <t>Leggett</t>
+  </si>
 </sst>
 </file>
 
@@ -784,9 +786,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -824,7 +826,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -930,7 +932,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1072,7 +1074,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1086,9 +1088,9 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -1099,7 +1101,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1113,7 +1115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1127,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1141,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1155,7 +1157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1169,7 +1171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1183,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1197,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1211,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1225,7 +1227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1239,7 +1241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1253,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1267,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1281,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1295,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1323,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1337,7 +1339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B19">
         <f>SUM(B2:B18)</f>
         <v>176</v>
@@ -1360,16 +1362,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E099D9-806A-4EE2-B6D4-471DCB5645A3}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -1380,7 +1382,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1398,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1416,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1445,7 +1447,7 @@
         <v>1455196.9679999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1473,7 +1475,7 @@
         <v>1227568.392</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1501,7 +1503,7 @@
         <v>21678.912</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1526,7 +1528,7 @@
         <v>2704444.2719999999</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1545,7 +1547,7 @@
       </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1566,7 +1568,7 @@
         <v>2709864</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1584,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1602,16 +1604,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
+        <v>25</v>
+      </c>
+      <c r="C12">
         <v>24</v>
       </c>
-      <c r="C12">
-        <v>23</v>
-      </c>
       <c r="D12">
         <v>1</v>
       </c>
@@ -1620,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1638,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -1656,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1674,25 +1676,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1710,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1728,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1746,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1764,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1782,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1800,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1818,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1836,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1854,7 +1856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -1872,10 +1874,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B27">
         <f>SUM(B2:B26)</f>
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C27">
         <f>SUM(C2:C26)</f>
@@ -1883,7 +1885,7 @@
       </c>
       <c r="D27">
         <f>SUM(D2:D26)</f>
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1896,15 +1898,15 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -1915,7 +1917,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1933,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1951,7 +1953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1980,7 +1982,7 @@
         <v>1472097.9980000001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2008,7 +2010,7 @@
         <v>1356865.2779999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2036,7 +2038,7 @@
         <v>46093.088000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2061,7 +2063,7 @@
         <v>2875056.3640000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2080,7 +2082,7 @@
       </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2101,7 +2103,7 @@
         <v>2880818</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2119,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2137,15 +2139,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -2155,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2176,7 +2178,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -2194,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2212,25 +2214,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2248,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2266,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2320,7 +2322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2338,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2356,7 +2358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2374,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -2392,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -2410,22 +2412,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B27">
         <f>SUM(B2:B26)</f>
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C27">
         <f>SUM(C2:C26)</f>
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D27">
         <f>SUM(D2:D26)</f>
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E27">
         <f>SUM(C27:D27)</f>
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -2441,15 +2443,15 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -2463,7 +2465,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2484,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2505,7 +2507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2526,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2547,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2578,7 +2580,7 @@
         <v>0.48599999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2610,7 +2612,7 @@
         <v>0.42800000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2641,7 +2643,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2662,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2683,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2704,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2729,7 +2731,7 @@
         <v>2778304.1379310344</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2750,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -2771,7 +2773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2792,15 +2794,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2813,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2834,7 +2836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2855,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2876,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2897,7 +2899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2918,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2939,7 +2941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2960,7 +2962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2981,18 +2983,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>39</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3002,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -3023,18 +3025,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B27">
         <f>SUM(B2:B26)</f>
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C27">
         <f t="shared" ref="C27:D27" si="2">SUM(C2:C26)</f>
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D27">
         <f t="shared" si="2"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E27">
         <f>SUM(E2:E26)</f>
@@ -3042,7 +3044,7 @@
       </c>
       <c r="F27">
         <f>SUM(C27:E27)</f>
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -3055,15 +3057,15 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -3074,7 +3076,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3095,7 +3097,7 @@
         <v>3700045</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3123,7 +3125,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3152,7 +3154,7 @@
         <v>0.45899999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3170,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3189,7 +3191,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3207,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3225,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3243,7 +3245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3261,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3279,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3297,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3315,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -3332,8 +3334,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3351,25 +3354,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3387,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3405,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3423,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3441,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -3459,7 +3462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3477,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3495,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3513,15 +3516,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>39</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -3531,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -3549,10 +3552,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B27">
         <f>SUM(B2:B26)</f>
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C27">
         <f t="shared" ref="C27:D27" si="1">SUM(C2:C26)</f>
@@ -3560,11 +3563,11 @@
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E27">
         <f>SUM(C27:D27)</f>
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -3576,16 +3579,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2850B4DF-CA28-49D2-85A6-701EE15E9067}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -3599,7 +3602,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3620,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3644,7 +3647,7 @@
         <v>3850045</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3675,7 +3678,7 @@
         <v>0.47099999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3707,7 +3710,7 @@
         <v>0.43600000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3738,7 +3741,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3759,7 +3762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3780,7 +3783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3801,7 +3804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3822,7 +3825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3843,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3864,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3885,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -3906,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3927,18 +3930,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3948,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3969,7 +3972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3990,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4011,7 +4014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -4032,7 +4035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -4053,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4074,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4095,7 +4098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4116,18 +4119,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>39</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4137,7 +4140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -4158,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -4179,14 +4182,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B28">
         <f>SUM(B2:B27)</f>
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C28">
         <f t="shared" ref="C28:D28" si="2">SUM(C2:C27)</f>
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D28">
         <f t="shared" si="2"/>
@@ -4206,21 +4209,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA501F0-7B9F-4207-A5BC-137105ACA8DF}">
   <dimension ref="A1:W70"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection activeCell="A26" sqref="A26"/>
-      <selection pane="topRight" activeCell="B52" sqref="B52"/>
+      <selection pane="topRight" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="14" max="14" width="10.42578125" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.41796875" customWidth="1"/>
+    <col min="16" max="16" width="10.68359375" customWidth="1"/>
+    <col min="18" max="18" width="10.578125" customWidth="1"/>
+    <col min="20" max="20" width="10.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -4260,7 +4263,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4318,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4376,7 +4379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4434,7 +4437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4492,7 +4495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4550,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4608,7 +4611,7 @@
         <v>184016.64300000001</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4666,7 +4669,7 @@
         <v>98571.582000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4724,7 +4727,7 @@
         <v>38667.584999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4782,7 +4785,7 @@
         <v>7106.7150000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4840,18 +4843,18 @@
         <v>45418.481999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -4862,7 +4865,7 @@
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
@@ -4870,7 +4873,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N12" s="9">
         <v>432862</v>
@@ -4898,7 +4901,7 @@
         <v>88736.709999999992</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -4956,7 +4959,7 @@
         <v>15763.998</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -5014,7 +5017,7 @@
         <v>30423.893</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -5072,7 +5075,7 @@
         <v>2852.92</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -5130,21 +5133,21 @@
         <v>91712.191000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
@@ -5152,7 +5155,7 @@
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
@@ -5188,7 +5191,7 @@
         <v>142999.386</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -5246,7 +5249,7 @@
         <v>60915.214999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -5304,7 +5307,7 @@
         <v>73254.216</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -5362,7 +5365,7 @@
         <v>79189.452000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -5420,7 +5423,7 @@
         <v>43036.840000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -5478,7 +5481,7 @@
         <v>24042.671999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -5536,7 +5539,7 @@
         <v>45995.027000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -5594,7 +5597,7 @@
         <v>33435.262000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -5652,7 +5655,7 @@
         <v>26394.29</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -5710,15 +5713,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>39</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -5732,7 +5735,7 @@
       </c>
       <c r="H27">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I27">
         <f t="shared" si="2"/>
@@ -5768,7 +5771,7 @@
         <v>49834.462999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -5826,7 +5829,7 @@
         <v>5489.4210000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
@@ -5884,26 +5887,26 @@
         <v>28336.110000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B30">
         <f>SUM(B2:B29)</f>
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C30">
         <f>SUM(C2:C29)</f>
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D30">
         <f t="shared" ref="D30:E30" si="8">SUM(D2:D29)</f>
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E30">
         <f t="shared" si="8"/>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H30">
         <f>SUM(H2:H29)</f>
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I30">
         <f>SUM(I2:I29)</f>
@@ -5911,7 +5914,7 @@
       </c>
       <c r="J30">
         <f>SUM(J2:J29)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N30" s="9">
         <f>SUM(N2:N29)</f>
@@ -5942,12 +5945,12 @@
         <v>1216193.0730000003</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="49" t="s">
         <v>100</v>
       </c>
@@ -5968,7 +5971,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" t="s">
         <v>23</v>
       </c>
@@ -6024,7 +6027,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="str">
         <f t="shared" ref="A38:A65" si="9">A2</f>
         <v>Mass.</v>
@@ -6097,7 +6100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="str">
         <f t="shared" si="9"/>
         <v>New Hamp.</v>
@@ -6170,7 +6173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="str">
         <f t="shared" si="9"/>
         <v>Vermont</v>
@@ -6243,7 +6246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="str">
         <f t="shared" si="9"/>
         <v>Rhode Is.</v>
@@ -6316,7 +6319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="str">
         <f t="shared" si="9"/>
         <v>Conn.</v>
@@ -6389,7 +6392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="str">
         <f t="shared" si="9"/>
         <v>New York</v>
@@ -6460,7 +6463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="str">
         <f t="shared" si="9"/>
         <v>Penn.</v>
@@ -6531,7 +6534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="str">
         <f t="shared" si="9"/>
         <v>New Jersey</v>
@@ -6602,7 +6605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="str">
         <f t="shared" si="9"/>
         <v>Delaware</v>
@@ -6674,7 +6677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="str">
         <f t="shared" si="9"/>
         <v>Maryland</v>
@@ -6746,21 +6749,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="str">
         <f t="shared" si="9"/>
         <v>Ohio</v>
       </c>
       <c r="B48">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C48">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D48">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -6774,15 +6777,15 @@
       </c>
       <c r="J48">
         <f t="shared" si="14"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K48">
         <f t="shared" si="15"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L48">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N48">
         <v>2</v>
@@ -6792,11 +6795,11 @@
       </c>
       <c r="P48">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q48">
         <f>L48-2</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R48">
         <v>1</v>
@@ -6807,7 +6810,7 @@
       </c>
       <c r="U48">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V48">
         <f t="shared" si="10"/>
@@ -6815,10 +6818,10 @@
       </c>
       <c r="W48">
         <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="str">
         <f t="shared" si="9"/>
         <v>Michigan</v>
@@ -6890,7 +6893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="str">
         <f t="shared" si="9"/>
         <v>Wisconsan</v>
@@ -6961,7 +6964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="str">
         <f t="shared" si="9"/>
         <v>Iowa</v>
@@ -7033,7 +7036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="str">
         <f t="shared" si="9"/>
         <v>Indiana</v>
@@ -7105,21 +7108,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="str">
         <f t="shared" si="9"/>
         <v>Illinois</v>
       </c>
       <c r="B53">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C53">
         <v>4</v>
       </c>
       <c r="D53">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F53">
         <v>2</v>
@@ -7133,7 +7136,7 @@
       </c>
       <c r="J53">
         <f t="shared" si="14"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K53">
         <f t="shared" si="15"/>
@@ -7141,7 +7144,7 @@
       </c>
       <c r="L53">
         <f t="shared" si="16"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N53">
         <v>4</v>
@@ -7155,7 +7158,7 @@
       </c>
       <c r="Q53">
         <f t="shared" ref="Q53:Q65" si="19">L53</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R53">
         <v>0</v>
@@ -7166,7 +7169,7 @@
       </c>
       <c r="U53">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V53">
         <f t="shared" si="10"/>
@@ -7177,7 +7180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="str">
         <f t="shared" si="9"/>
         <v>Virginia</v>
@@ -7249,7 +7252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="str">
         <f t="shared" si="9"/>
         <v>Kentucky</v>
@@ -7321,7 +7324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="str">
         <f t="shared" si="9"/>
         <v>Tennessee</v>
@@ -7393,7 +7396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="str">
         <f t="shared" si="9"/>
         <v>North Carolina</v>
@@ -7465,7 +7468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="str">
         <f t="shared" si="9"/>
         <v>South Carolina</v>
@@ -7537,7 +7540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="str">
         <f t="shared" si="9"/>
         <v>Georgia</v>
@@ -7609,7 +7612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="str">
         <f t="shared" si="9"/>
         <v>Yazoo</v>
@@ -7681,7 +7684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="str">
         <f t="shared" si="9"/>
         <v>Mississippi</v>
@@ -7753,7 +7756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="str">
         <f t="shared" si="9"/>
         <v>West Florida</v>
@@ -7825,21 +7828,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="str">
         <f t="shared" si="9"/>
         <v>Missouri</v>
       </c>
       <c r="B63">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
       <c r="D63">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F63">
         <v>2</v>
@@ -7853,7 +7856,7 @@
       </c>
       <c r="J63">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K63">
         <f t="shared" si="15"/>
@@ -7861,7 +7864,7 @@
       </c>
       <c r="L63">
         <f t="shared" si="16"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N63">
         <v>2</v>
@@ -7875,7 +7878,7 @@
       </c>
       <c r="Q63">
         <f t="shared" si="19"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R63">
         <v>0</v>
@@ -7886,7 +7889,7 @@
       </c>
       <c r="U63">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V63">
         <f t="shared" si="10"/>
@@ -7897,7 +7900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="str">
         <f t="shared" si="9"/>
         <v>Arkansaw</v>
@@ -7969,7 +7972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="str">
         <f t="shared" si="9"/>
         <v>Orleans</v>
@@ -8041,18 +8044,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B66">
         <f>SUM(B38:B65)</f>
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C66">
         <f t="shared" ref="C66:D66" si="20">SUM(C38:C65)</f>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D66">
         <f t="shared" si="20"/>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F66">
         <f t="shared" ref="F66" si="21">SUM(F38:F65)</f>
@@ -8068,15 +8071,15 @@
       </c>
       <c r="J66">
         <f t="shared" si="14"/>
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K66">
         <f t="shared" si="15"/>
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L66">
         <f t="shared" si="16"/>
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N66">
         <f t="shared" ref="N66:S66" si="24">SUM(N38:N65)</f>
@@ -8088,11 +8091,11 @@
       </c>
       <c r="P66">
         <f t="shared" si="24"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q66">
         <f t="shared" si="24"/>
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="R66">
         <f t="shared" si="24"/>
@@ -8104,7 +8107,7 @@
       </c>
       <c r="U66">
         <f t="shared" si="10"/>
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="V66">
         <f t="shared" si="10"/>
@@ -8112,10 +8115,10 @@
       </c>
       <c r="W66">
         <f t="shared" si="10"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="K70">
         <f>SUM(K46:K47)+SUM(K53:K65)-SUM(O46:P47)-SUM(O53:P65)</f>
         <v>39</v>
@@ -8139,18 +8142,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51947CF-0BB2-45FC-89F7-6D23DDB75B18}">
   <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -8185,7 +8188,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8259,7 +8262,7 @@
         <v>434948.89399999997</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8305,7 +8308,7 @@
         <v>5908.3829999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -8351,7 +8354,7 @@
         <v>7925.8919999999989</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -8397,7 +8400,7 @@
         <v>2594.904</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -8443,7 +8446,7 @@
         <v>11934.472</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -8451,10 +8454,10 @@
         <v>35</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8489,7 +8492,7 @@
         <v>105371.60399999999</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -8535,7 +8538,7 @@
         <v>66877.52399999999</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -8581,7 +8584,7 @@
         <v>23001.611999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -8627,7 +8630,7 @@
         <v>6177.2150000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -8673,18 +8676,18 @@
         <v>28583.117999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>19</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -8719,7 +8722,7 @@
         <v>60179.408000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -8765,7 +8768,7 @@
         <v>26623.16</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -8811,7 +8814,7 @@
         <v>3649.89</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -8857,7 +8860,7 @@
         <v>25418.756999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -8903,7 +8906,7 @@
         <v>1829.59</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -8949,21 +8952,21 @@
         <v>68474.567999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
@@ -8995,7 +8998,7 @@
         <v>57591.707999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -9041,7 +9044,7 @@
         <v>96534.381000000008</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -9087,7 +9090,7 @@
         <v>63328.296000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -9133,7 +9136,7 @@
         <v>63994.428</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -9179,7 +9182,7 @@
         <v>32398.52</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -9225,7 +9228,7 @@
         <v>15448.456</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -9271,7 +9274,7 @@
         <v>40369.534999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -9317,7 +9320,7 @@
         <v>26856.356</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -9363,7 +9366,7 @@
         <v>16513.704999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -9409,18 +9412,18 @@
         <v>855.57</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>39</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -9455,7 +9458,7 @@
         <v>51966.648000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -9501,7 +9504,7 @@
         <v>4292.3509999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -9547,29 +9550,29 @@
         <v>28103.79</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>57</v>
       </c>
       <c r="B31">
         <f>SUM(B2:B30)</f>
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C31">
         <f t="shared" ref="C31:D31" si="5">SUM(C2:C30)</f>
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D31">
         <f t="shared" si="5"/>
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E31">
         <f>SUM(E2:E30)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F31">
         <f>SUM(C31:E31)</f>
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H31" s="9">
         <f>SUM(H2:H30)</f>
@@ -9600,7 +9603,7 @@
         <v>967962.97100000002</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -9609,18 +9612,18 @@
       </c>
       <c r="D33">
         <f>E18</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33">
         <f>-E18</f>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F33">
         <f t="shared" ref="F33:F37" si="8">B33-SUM(C33:E33)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -9638,7 +9641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>119</v>
       </c>
@@ -9657,8 +9660,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <f>C31/B31</f>
+        <v>0.50488599348534202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -9678,8 +9685,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <f>D38/B38</f>
+        <v>0.50159744408945683</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -9700,21 +9711,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>58</v>
       </c>
       <c r="B38">
         <f>SUM(B31:B37)</f>
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C38">
         <f>SUM(C31:C37)</f>
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D38">
         <f>SUM(D31:D37)</f>
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E38">
         <f>SUM(E31:E37)</f>
@@ -9722,7 +9733,7 @@
       </c>
       <c r="F38">
         <f>SUM(C38:E38)</f>
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -9739,13 +9750,13 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.83984375" customWidth="1"/>
+    <col min="7" max="7" width="8.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A1">
         <v>1</v>
       </c>
@@ -9771,7 +9782,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>2</v>
       </c>
@@ -9808,7 +9819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>3</v>
       </c>
@@ -9845,7 +9856,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>4</v>
       </c>
@@ -9882,7 +9893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>5</v>
       </c>
@@ -9919,7 +9930,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>6</v>
       </c>
@@ -9945,7 +9956,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>7</v>
       </c>
@@ -9974,7 +9985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>8</v>
       </c>
@@ -10000,7 +10011,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>9</v>
       </c>
@@ -10026,7 +10037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>10</v>
       </c>
@@ -10052,7 +10063,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>11</v>
       </c>
@@ -10078,7 +10089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>12</v>
       </c>
@@ -10104,7 +10115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>13</v>
       </c>
@@ -10130,7 +10141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>14</v>
       </c>
@@ -10156,7 +10167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>15</v>
       </c>
@@ -10182,7 +10193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>16</v>
       </c>
@@ -10202,7 +10213,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>17</v>
       </c>
@@ -10222,7 +10233,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>18</v>
       </c>
@@ -10242,7 +10253,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>19</v>
       </c>
@@ -10256,7 +10267,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>20</v>
       </c>
@@ -10270,7 +10281,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>21</v>
       </c>
@@ -10284,7 +10295,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>22</v>
       </c>
@@ -10298,7 +10309,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>23</v>
       </c>
@@ -10312,7 +10323,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>24</v>
       </c>
@@ -10326,7 +10337,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>25</v>
       </c>
@@ -10340,7 +10351,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>26</v>
       </c>
@@ -10354,7 +10365,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>27</v>
       </c>
@@ -10368,7 +10379,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>28</v>
       </c>
@@ -10382,7 +10393,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>29</v>
       </c>
@@ -10396,7 +10407,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>30</v>
       </c>
@@ -10410,7 +10421,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>31</v>
       </c>
@@ -10441,14 +10452,14 @@
       <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="49" t="s">
         <v>100</v>
       </c>
@@ -10457,7 +10468,7 @@
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="31" t="s">
         <v>138</v>
       </c>
@@ -10474,7 +10485,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="31" t="s">
         <v>0</v>
       </c>
@@ -10495,7 +10506,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
@@ -10516,7 +10527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="31" t="s">
         <v>2</v>
       </c>
@@ -10537,7 +10548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="31" t="s">
         <v>3</v>
       </c>
@@ -10558,7 +10569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="31" t="s">
         <v>4</v>
       </c>
@@ -10579,7 +10590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="31" t="s">
         <v>5</v>
       </c>
@@ -10600,7 +10611,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="31" t="s">
         <v>6</v>
       </c>
@@ -10621,7 +10632,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="31" t="s">
         <v>7</v>
       </c>
@@ -10642,7 +10653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="31" t="s">
         <v>8</v>
       </c>
@@ -10663,7 +10674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="31" t="s">
         <v>9</v>
       </c>
@@ -10684,7 +10695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="31" t="s">
         <v>10</v>
       </c>
@@ -10705,7 +10716,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="31" t="s">
         <v>11</v>
       </c>
@@ -10726,7 +10737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="31" t="s">
         <v>44</v>
       </c>
@@ -10747,7 +10758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="31" t="s">
         <v>45</v>
       </c>
@@ -10768,7 +10779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="31" t="s">
         <v>12</v>
       </c>
@@ -10789,7 +10800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="31" t="s">
         <v>13</v>
       </c>
@@ -10810,7 +10821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="31" t="s">
         <v>14</v>
       </c>
@@ -10831,7 +10842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="31" t="s">
         <v>15</v>
       </c>
@@ -10852,7 +10863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="31" t="s">
         <v>16</v>
       </c>
@@ -10873,7 +10884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="31" t="s">
         <v>17</v>
       </c>
@@ -10894,7 +10905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="31" t="s">
         <v>18</v>
       </c>
@@ -10915,7 +10926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="31" t="s">
         <v>19</v>
       </c>
@@ -10936,7 +10947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="31" t="s">
         <v>20</v>
       </c>
@@ -10961,7 +10972,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="31" t="s">
         <v>21</v>
       </c>
@@ -10986,7 +10997,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="31" t="s">
         <v>37</v>
       </c>
@@ -11007,7 +11018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="31" t="s">
         <v>39</v>
       </c>
@@ -11028,7 +11039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="31" t="s">
         <v>35</v>
       </c>
@@ -11053,7 +11064,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="31" t="s">
         <v>22</v>
       </c>
@@ -11074,7 +11085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="31" t="s">
         <v>141</v>
       </c>
@@ -11098,10 +11109,10 @@
         <v>245</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="31"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="31" t="s">
         <v>124</v>
       </c>
@@ -11121,7 +11132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="31" t="s">
         <v>38</v>
       </c>
@@ -11141,7 +11152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A36" s="31" t="s">
         <v>36</v>
       </c>
@@ -11161,7 +11172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="41" t="s">
         <v>142</v>
       </c>
@@ -11199,16 +11210,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCDD3F7-DD7A-4A78-9BF7-91B6713886F3}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>128</v>
       </c>
@@ -11216,7 +11227,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -11230,7 +11241,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1800</v>
       </c>
@@ -11245,7 +11256,7 @@
         <v>8144</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>1810</v>
       </c>
@@ -11267,7 +11278,7 @@
         <v>0.89968074656188601</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>1820</v>
       </c>
@@ -11289,7 +11300,7 @@
         <v>0.5083704996444961</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>1830</v>
       </c>
@@ -11311,7 +11322,7 @@
         <v>0.29675179979430921</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>1840</v>
       </c>
@@ -11333,7 +11344,7 @@
         <v>0.11513168765077161</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>1850</v>
       </c>
@@ -11355,7 +11366,7 @@
         <v>0.53169358423470148</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>1860</v>
       </c>
@@ -11377,7 +11388,7 @@
         <v>0.45258962601814767</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>1870</v>
       </c>
@@ -11399,7 +11410,7 @@
         <v>0.75412892914224827</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>1880</v>
       </c>
@@ -11421,7 +11432,7 @@
         <v>0.34870159453302962</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>1890</v>
       </c>
@@ -11443,7 +11454,7 @@
         <v>0.29707697158041707</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>1900</v>
       </c>
@@ -11465,7 +11476,7 @@
         <v>0.20975554706760652</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>1910</v>
       </c>
@@ -11487,7 +11498,7 @@
         <v>0.18782784032606434</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>1920</v>
       </c>
@@ -11509,7 +11520,7 @@
         <v>0.3216912486520937</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>1930</v>
       </c>
@@ -11531,7 +11542,7 @@
         <v>0.11266285928455039</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>1940</v>
       </c>
@@ -11553,7 +11564,7 @@
         <v>0.36194951824823512</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>1950</v>
       </c>
@@ -11575,7 +11586,7 @@
         <v>0.20975552375164194</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>1960</v>
       </c>
@@ -11597,7 +11608,7 @@
         <v>-4.7647778921885167E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>1970</v>
       </c>
@@ -11619,7 +11630,7 @@
         <v>-9.7466346229363992E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>1980</v>
       </c>
@@ -11641,7 +11652,7 @@
         <v>-0.15621340101254444</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>1990</v>
       </c>
@@ -11663,7 +11674,7 @@
         <v>-4.924232336413753E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>2000</v>
       </c>
@@ -11685,7 +11696,7 @@
         <v>-5.7408139726478825E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -11707,10 +11718,10 @@
         <v>5.1854791201606826E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="F25" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>128</v>
       </c>
@@ -11718,7 +11729,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -11732,7 +11743,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>1800</v>
       </c>
@@ -11747,7 +11758,7 @@
         <v>8144</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>1810</v>
       </c>
@@ -11769,7 +11780,7 @@
         <v>0.89968074656188601</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>1820</v>
       </c>
@@ -11791,7 +11802,7 @@
         <v>0.76691875121194497</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>1830</v>
       </c>
@@ -11813,7 +11824,7 @@
         <v>0.36307433421129648</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>1840</v>
       </c>
@@ -11835,7 +11846,7 @@
         <v>0.65709454926062105</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>1850</v>
       </c>
@@ -11857,7 +11868,7 @@
         <v>0.90601668151267312</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>1860</v>
       </c>
@@ -11879,7 +11890,7 @@
         <v>0.530160510506683</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>1870</v>
       </c>
@@ -11901,7 +11912,7 @@
         <v>0.50322079075966242</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>1880</v>
       </c>
@@ -11923,7 +11934,7 @@
         <v>0.33219061691909862</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>1890</v>
       </c>
@@ -11948,7 +11959,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>1900</v>
       </c>
@@ -11970,7 +11981,7 @@
         <v>0.28766043111091733</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>1910</v>
       </c>
@@ -11992,7 +12003,7 @@
         <v>0.27140696299515465</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>1920</v>
       </c>
@@ -12014,7 +12025,7 @@
         <v>0.26246824604996954</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>1930</v>
       </c>
@@ -12036,7 +12047,7 @@
         <v>0.30705599914203158</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>1940</v>
       </c>
@@ -12058,7 +12069,7 @@
         <v>0.11062440605056666</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>1950</v>
       </c>
@@ -12080,7 +12091,7 @@
         <v>-6.603009774409227E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>1960</v>
       </c>
@@ -12102,7 +12113,7 @@
         <v>-4.7380753854273511E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>1970</v>
       </c>
@@ -12124,7 +12135,7 @@
         <v>0.11787402721682941</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>1980</v>
       </c>
@@ -12146,7 +12157,7 @@
         <v>7.6661128101591369E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>1990</v>
       </c>
@@ -12168,7 +12179,7 @@
         <v>6.1395110536307355E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>2000</v>
       </c>
@@ -12190,7 +12201,7 @@
         <v>5.0700090574884116E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>2010</v>
       </c>
@@ -12226,9 +12237,9 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -12239,7 +12250,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -12253,7 +12264,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -12267,7 +12278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -12281,7 +12292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -12295,7 +12306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -12309,7 +12320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -12323,7 +12334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -12337,7 +12348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -12351,7 +12362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -12365,7 +12376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -12379,7 +12390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -12393,7 +12404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -12407,7 +12418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -12421,7 +12432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -12435,7 +12446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -12449,7 +12460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -12463,7 +12474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -12477,7 +12488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B19">
         <f>SUM(B2:B18)</f>
         <v>220</v>
@@ -12504,9 +12515,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -12517,7 +12528,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -12531,7 +12542,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -12545,7 +12556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -12559,7 +12570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -12573,7 +12584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -12587,7 +12598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -12601,7 +12612,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -12615,7 +12626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -12629,7 +12640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -12643,7 +12654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -12657,7 +12668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -12671,7 +12682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -12685,7 +12696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -12699,7 +12710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -12713,7 +12724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -12727,7 +12738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -12741,7 +12752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -12755,7 +12766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -12769,7 +12780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -12783,7 +12794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B21">
         <f>SUM(B2:B20)</f>
         <v>226</v>
@@ -12810,9 +12821,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -12829,7 +12840,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -12853,7 +12864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -12877,7 +12888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -12901,7 +12912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -12925,7 +12936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -12952,7 +12963,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -12979,7 +12990,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -13003,7 +13014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -13027,7 +13038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -13051,7 +13062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -13075,7 +13086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -13099,7 +13110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -13123,7 +13134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -13147,7 +13158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -13171,7 +13182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -13198,7 +13209,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -13222,7 +13233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -13246,7 +13257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -13270,7 +13281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -13294,7 +13305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -13318,7 +13329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22">
         <f>SUM(B2:B21)</f>
         <v>229</v>
@@ -13353,9 +13364,9 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -13372,7 +13383,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -13396,7 +13407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -13420,7 +13431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -13444,7 +13455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -13468,7 +13479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -13492,7 +13503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -13516,7 +13527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -13540,7 +13551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -13564,7 +13575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -13588,7 +13599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -13612,7 +13623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -13636,7 +13647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -13660,7 +13671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -13684,7 +13695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -13708,7 +13719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -13732,7 +13743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -13756,7 +13767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -13780,7 +13791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -13804,7 +13815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -13828,7 +13839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -13852,7 +13863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -13876,7 +13887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B23">
         <f>SUM(B2:B22)</f>
         <v>265</v>
@@ -13898,7 +13909,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="28">
         <f>1-SUM(D24:F24)</f>
         <v>0.35699999999999998</v>
@@ -13913,7 +13924,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C25">
         <f>C24*$I$25</f>
         <v>255072.57299999997</v>
@@ -13948,15 +13959,15 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.15625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.15625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="46" t="s">
         <v>23</v>
       </c>
@@ -13977,7 +13988,7 @@
       <c r="K2" s="48"/>
       <c r="L2" s="47"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="7" t="s">
         <v>89</v>
       </c>
@@ -14012,7 +14023,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -14059,7 +14070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -14105,7 +14116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -14151,7 +14162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -14197,7 +14208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -14243,7 +14254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -14292,7 +14303,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -14338,7 +14349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -14384,7 +14395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -14430,7 +14441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -14476,7 +14487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -14522,7 +14533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -14568,7 +14579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -14614,7 +14625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -14660,7 +14671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -14706,7 +14717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -14752,7 +14763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -14798,7 +14809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -14844,7 +14855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -14891,7 +14902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -14938,7 +14949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -14985,7 +14996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -15038,7 +15049,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B28">
         <f>D25/B25</f>
         <v>0.57358490566037734</v>
@@ -15064,14 +15075,14 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.15625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="46" t="s">
         <v>23</v>
       </c>
@@ -15102,7 +15113,7 @@
       <c r="Q2" s="48"/>
       <c r="R2" s="47"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
       <c r="D3" s="7" t="s">
@@ -15151,7 +15162,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -15219,7 +15230,7 @@
       </c>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -15286,7 +15297,7 @@
       </c>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -15352,7 +15363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -15419,7 +15430,7 @@
       </c>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -15485,7 +15496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -15566,7 +15577,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -15647,7 +15658,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -15728,7 +15739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -15809,7 +15820,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -15890,7 +15901,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -15956,7 +15967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -16026,7 +16037,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -16092,7 +16103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -16158,7 +16169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -16227,7 +16238,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -16293,7 +16304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -16362,7 +16373,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -16431,7 +16442,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -16497,7 +16508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -16566,7 +16577,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -16632,7 +16643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -16698,7 +16709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -16764,7 +16775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="10">
         <f t="shared" ref="B27:P27" si="8">SUM(B4:B26)</f>
         <v>296</v>
@@ -16838,7 +16849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B29">
         <f>D27/B27</f>
         <v>0.60472972972972971</v>
@@ -16866,13 +16877,13 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="49" t="s">
         <v>23</v>
       </c>
@@ -16898,7 +16909,7 @@
       <c r="N2" s="48"/>
       <c r="O2" s="47"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>89</v>
       </c>
@@ -16942,7 +16953,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -17002,7 +17013,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -17062,7 +17073,7 @@
       </c>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -17118,7 +17129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -17177,7 +17188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -17247,7 +17258,7 @@
         <v>0.49315862311523218</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -17317,7 +17328,7 @@
         <v>0.26591449324996408</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -17387,7 +17398,7 @@
         <v>0.19739539144164445</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -17457,7 +17468,7 @@
         <v>4.3531492193159389E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -17517,7 +17528,7 @@
       </c>
       <c r="W12" s="4"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -17576,7 +17587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -17635,7 +17646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -17694,7 +17705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -17753,7 +17764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -17812,7 +17823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -17871,7 +17882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -17927,7 +17938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -17986,7 +17997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -18045,7 +18056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -18104,7 +18115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -18163,7 +18174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -18222,7 +18233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -18281,7 +18292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -18340,7 +18351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B27">
         <f>SUM(B4:B26)</f>
         <v>296</v>
@@ -18402,18 +18413,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D29">
         <f>D27/B27</f>
         <v>0.59121621621621623</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="str">
         <f>A4</f>
         <v>Mass.</v>
@@ -18430,7 +18441,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="str">
         <f t="shared" ref="A35:A41" si="6">A5</f>
         <v>New Hamp.</v>
@@ -18447,7 +18458,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="str">
         <f t="shared" si="6"/>
         <v>Vermont</v>
@@ -18457,7 +18468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="str">
         <f t="shared" si="6"/>
         <v>Rhode Is.</v>
@@ -18467,7 +18478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="str">
         <f t="shared" si="6"/>
         <v>Conn.</v>
@@ -18477,7 +18488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="str">
         <f t="shared" si="6"/>
         <v>New York</v>
@@ -18487,7 +18498,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="str">
         <f t="shared" si="6"/>
         <v>Penn.</v>
@@ -18497,7 +18508,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="str">
         <f t="shared" si="6"/>
         <v>New Jersey</v>
@@ -18507,7 +18518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="str">
         <f>A13</f>
         <v>Maryland</v>
@@ -18517,7 +18528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="str">
         <f>A14</f>
         <v>Ohio</v>
@@ -18527,7 +18538,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="str">
         <f>A15</f>
         <v>Michigan</v>
@@ -18537,7 +18548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="str">
         <f>A16</f>
         <v>Indiana</v>
@@ -18547,7 +18558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="str">
         <f>A17</f>
         <v>Illinois</v>
@@ -18557,7 +18568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -18565,7 +18576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="str">
         <f t="shared" ref="A48:A56" si="8">A18</f>
         <v>Virginia</v>
@@ -18575,7 +18586,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="str">
         <f t="shared" si="8"/>
         <v>Kentucky</v>
@@ -18585,7 +18596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="str">
         <f t="shared" si="8"/>
         <v>Tennessee</v>
@@ -18595,7 +18606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="str">
         <f t="shared" si="8"/>
         <v>North Carolina</v>
@@ -18605,7 +18616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="str">
         <f t="shared" si="8"/>
         <v>South Carolina</v>
@@ -18615,7 +18626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="str">
         <f t="shared" si="8"/>
         <v>Georgia</v>
@@ -18625,7 +18636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="str">
         <f t="shared" si="8"/>
         <v>Yazoo</v>
@@ -18635,7 +18646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="str">
         <f t="shared" si="8"/>
         <v>Mississippi</v>
@@ -18645,7 +18656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="str">
         <f t="shared" si="8"/>
         <v>Orleans</v>
@@ -18655,7 +18666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -18680,16 +18691,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DBC8FD-662D-4F43-B81C-673EB6B1F6BD}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -18700,7 +18711,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -18718,7 +18729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -18736,7 +18747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -18765,7 +18776,7 @@
         <v>1138733.8739999998</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -18793,7 +18804,7 @@
         <v>1143569.2619999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -18811,7 +18822,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="I6" s="5">
         <v>5.3999999999999999E-2</v>
@@ -18821,7 +18832,7 @@
         <v>130555.476</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -18846,7 +18857,7 @@
         <v>2412858.6120000002</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -18865,7 +18876,7 @@
       </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -18886,7 +18897,7 @@
         <v>2417694</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -18904,7 +18915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -18922,7 +18933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -18940,7 +18951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -18958,7 +18969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -18976,7 +18987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -18994,7 +19005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -19012,7 +19023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -19030,7 +19041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -19048,7 +19059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -19066,7 +19077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -19084,7 +19095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -19102,7 +19113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -19120,7 +19131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -19138,7 +19149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -19156,7 +19167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -19174,7 +19185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B26">
         <f>SUM(B2:B25)</f>
         <v>299</v>
@@ -19192,13 +19203,13 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C28">
         <f>C26/B26</f>
         <v>0.59197324414715724</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="str">
         <f>A2</f>
         <v>Mass.</v>

--- a/obsidian-notes/spreadsheets/us-elections.xlsx
+++ b/obsidian-notes/spreadsheets/us-elections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40465930-5050-4C46-B676-43F6F0AE387E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF851FDC-2ECA-419B-B2C0-5BFAFD20F2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" tabRatio="774" activeTab="8" xr2:uid="{59FA0D2B-AA2F-47E7-9530-8606E48D7FD7}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" tabRatio="774" firstSheet="4" activeTab="15" xr2:uid="{59FA0D2B-AA2F-47E7-9530-8606E48D7FD7}"/>
   </bookViews>
   <sheets>
     <sheet name="1808" sheetId="18" r:id="rId1"/>
@@ -29,9 +29,10 @@
     <sheet name="1860" sheetId="10" r:id="rId14"/>
     <sheet name="1864" sheetId="11" r:id="rId15"/>
     <sheet name="1868" sheetId="12" r:id="rId16"/>
-    <sheet name="Sheet3" sheetId="2" r:id="rId17"/>
-    <sheet name="1866 midterms" sheetId="21" r:id="rId18"/>
-    <sheet name="dc vs balt" sheetId="20" r:id="rId19"/>
+    <sheet name="1872" sheetId="22" r:id="rId17"/>
+    <sheet name="Sheet3" sheetId="2" r:id="rId18"/>
+    <sheet name="1866 midterms" sheetId="21" r:id="rId19"/>
+    <sheet name="dc vs balt" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="152">
   <si>
     <t>Mass.</t>
   </si>
@@ -487,6 +488,30 @@
   <si>
     <t>Leggett</t>
   </si>
+  <si>
+    <t>Bancroft</t>
+  </si>
+  <si>
+    <t>Juniper</t>
+  </si>
+  <si>
+    <t>Nibrasca</t>
+  </si>
+  <si>
+    <t>Kances</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Olympia</t>
+  </si>
+  <si>
+    <t>Alleghania</t>
+  </si>
+  <si>
+    <t>Hunt</t>
+  </si>
 </sst>
 </file>
 
@@ -685,7 +710,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -766,6 +791,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3579,7 +3606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2850B4DF-CA28-49D2-85A6-701EE15E9067}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -4209,8 +4236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA501F0-7B9F-4207-A5BC-137105ACA8DF}">
   <dimension ref="A1:W70"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A26" sqref="A26"/>
       <selection pane="topRight" activeCell="F33" sqref="F33"/>
     </sheetView>
@@ -8142,8 +8169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51947CF-0BB2-45FC-89F7-6D23DDB75B18}">
   <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8158,7 +8185,7 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="D1" t="s">
         <v>125</v>
@@ -8239,19 +8266,19 @@
       </c>
       <c r="Q2" s="30">
         <f>R2/P2</f>
-        <v>0.61705945537073303</v>
+        <v>0.61499869981896282</v>
       </c>
       <c r="R2" s="2">
         <f>SUM(J2:J9)+SUM(J12:J17)</f>
-        <v>2260496.1169999996</v>
+        <v>2252946.8769999999</v>
       </c>
       <c r="S2" s="30">
         <f>T2/P2</f>
-        <v>0.26421026872773884</v>
+        <v>0.26627102427950916</v>
       </c>
       <c r="T2" s="2">
         <f>SUM(L2:L9)+SUM(L12:L17)</f>
-        <v>967890.98899999994</v>
+        <v>975440.22900000005</v>
       </c>
       <c r="U2" s="30">
         <f>V2/P2</f>
@@ -8424,19 +8451,19 @@
         <v>98632</v>
       </c>
       <c r="I6" s="5">
-        <v>0.60099999999999998</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="1"/>
-        <v>59277.831999999995</v>
+        <v>53359.912000000004</v>
       </c>
       <c r="K6" s="30">
         <f t="shared" si="2"/>
-        <v>0.27800000000000002</v>
+        <v>0.33799999999999997</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" si="3"/>
-        <v>27419.696000000004</v>
+        <v>33337.615999999995</v>
       </c>
       <c r="M6" s="5">
         <v>0.121</v>
@@ -8562,19 +8589,19 @@
         <v>163132</v>
       </c>
       <c r="I9" s="5">
-        <v>0.52900000000000003</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="1"/>
-        <v>86296.828000000009</v>
+        <v>84665.508000000002</v>
       </c>
       <c r="K9" s="30">
         <f t="shared" si="2"/>
-        <v>0.32999999999999996</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="3"/>
-        <v>53833.55999999999</v>
+        <v>55464.88</v>
       </c>
       <c r="M9" s="5">
         <v>0.14099999999999999</v>
@@ -9580,19 +9607,19 @@
       </c>
       <c r="I31" s="30">
         <f>J31/H31</f>
-        <v>0.45977451398934682</v>
+        <v>0.45834846464193874</v>
       </c>
       <c r="J31" s="3">
         <f>SUM(J2:J30)</f>
-        <v>2433960.7590000001</v>
+        <v>2426411.5190000003</v>
       </c>
       <c r="K31" s="30">
         <f>L31/H31</f>
-        <v>0.35737754858784232</v>
+        <v>0.35880359793525046</v>
       </c>
       <c r="L31" s="3">
         <f t="shared" ref="L31" si="6">SUM(L2:L30)</f>
-        <v>1891890.2699999998</v>
+        <v>1899439.51</v>
       </c>
       <c r="M31" s="30">
         <f>N31/H31</f>
@@ -9743,10 +9770,529 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903ECFF5-82AA-4D1F-9A37-BA1157EC85A8}">
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="50">
+        <v>0</v>
+      </c>
+      <c r="C30" s="50">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="51">
+        <v>3</v>
+      </c>
+      <c r="C31" s="51">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" s="51">
+        <v>3</v>
+      </c>
+      <c r="C32" s="51">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="51">
+        <v>6</v>
+      </c>
+      <c r="C33" s="51">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="51">
+        <v>3</v>
+      </c>
+      <c r="C34" s="51">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" s="51">
+        <v>4</v>
+      </c>
+      <c r="C35" s="51">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36">
+        <f>SUM(B2:B35)</f>
+        <v>202</v>
+      </c>
+      <c r="C36">
+        <f>SUM(C2:C35)</f>
+        <v>202</v>
+      </c>
+      <c r="D36">
+        <f>SUM(D2:D35)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA31C8DA-30F5-4744-A494-4BFEF37A754B}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -10441,7 +10987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06388391-4367-4D5D-AFD8-4634D89D760E}">
   <dimension ref="A1:I37"/>
   <sheetViews>
@@ -11206,7 +11752,285 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB55209-90DC-4A9C-88C0-855AA43D8B63}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19">
+        <f>SUM(B2:B18)</f>
+        <v>220</v>
+      </c>
+      <c r="C19">
+        <f>SUM(C2:C18)</f>
+        <v>180</v>
+      </c>
+      <c r="D19">
+        <f>SUM(D2:D18)</f>
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCDD3F7-DD7A-4A78-9BF7-91B6713886F3}">
   <dimension ref="A1:H53"/>
   <sheetViews>
@@ -12226,284 +13050,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB55209-90DC-4A9C-88C0-855AA43D8B63}">
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>22</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>33</v>
-      </c>
-      <c r="C7">
-        <v>33</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>26</v>
-      </c>
-      <c r="C8">
-        <v>26</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>25</v>
-      </c>
-      <c r="C13">
-        <v>25</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>7</v>
-      </c>
-      <c r="C15">
-        <v>7</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>11</v>
-      </c>
-      <c r="C17">
-        <v>11</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <v>8</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19">
-        <f>SUM(B2:B18)</f>
-        <v>220</v>
-      </c>
-      <c r="C19">
-        <f>SUM(C2:C18)</f>
-        <v>180</v>
-      </c>
-      <c r="D19">
-        <f>SUM(D2:D18)</f>
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -18691,7 +19237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DBC8FD-662D-4F43-B81C-673EB6B1F6BD}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="AF1" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>

--- a/obsidian-notes/spreadsheets/us-elections.xlsx
+++ b/obsidian-notes/spreadsheets/us-elections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF851FDC-2ECA-419B-B2C0-5BFAFD20F2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE9D927-B734-4CCB-AC5A-E52B924936EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" tabRatio="774" firstSheet="4" activeTab="15" xr2:uid="{59FA0D2B-AA2F-47E7-9530-8606E48D7FD7}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="153">
   <si>
     <t>Mass.</t>
   </si>
@@ -512,6 +512,9 @@
   <si>
     <t>Hunt</t>
   </si>
+  <si>
+    <t>Conn. dispute</t>
+  </si>
 </sst>
 </file>
 
@@ -710,7 +713,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -791,8 +794,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -8167,10 +8168,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51947CF-0BB2-45FC-89F7-6D23DDB75B18}">
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8266,27 +8267,27 @@
       </c>
       <c r="Q2" s="30">
         <f>R2/P2</f>
-        <v>0.61499869981896282</v>
+        <v>0.61366276994520841</v>
       </c>
       <c r="R2" s="2">
         <f>SUM(J2:J9)+SUM(J12:J17)</f>
-        <v>2252946.8769999999</v>
+        <v>2248052.9169999999</v>
       </c>
       <c r="S2" s="30">
         <f>T2/P2</f>
-        <v>0.26627102427950916</v>
+        <v>0.2649350944057548</v>
       </c>
       <c r="T2" s="2">
         <f>SUM(L2:L9)+SUM(L12:L17)</f>
-        <v>975440.22900000005</v>
+        <v>970546.26900000009</v>
       </c>
       <c r="U2" s="30">
         <f>V2/P2</f>
-        <v>0.118730275901528</v>
+        <v>0.12140213564903683</v>
       </c>
       <c r="V2" s="2">
         <f>SUM(N2:N9)+SUM(N12:N17)</f>
-        <v>434948.89399999997</v>
+        <v>444736.81400000001</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -8527,10 +8528,10 @@
         <v>28</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8573,13 +8574,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -8589,26 +8590,26 @@
         <v>163132</v>
       </c>
       <c r="I9" s="5">
-        <v>0.51900000000000002</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="1"/>
-        <v>84665.508000000002</v>
+        <v>79771.547999999995</v>
       </c>
       <c r="K9" s="30">
         <f t="shared" si="2"/>
-        <v>0.33999999999999997</v>
+        <v>0.31</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="3"/>
-        <v>55464.88</v>
+        <v>50570.92</v>
       </c>
       <c r="M9" s="5">
-        <v>0.14099999999999999</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="N9" s="3">
         <f t="shared" si="4"/>
-        <v>23001.611999999997</v>
+        <v>32789.531999999999</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -8797,7 +8798,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -8990,10 +8991,10 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
@@ -9011,18 +9012,18 @@
       </c>
       <c r="K18" s="30">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="3"/>
-        <v>81497.7</v>
+        <v>70631.34</v>
       </c>
       <c r="M18" s="5">
-        <v>0.318</v>
+        <v>0.378</v>
       </c>
       <c r="N18" s="3">
         <f t="shared" si="4"/>
-        <v>57591.707999999999</v>
+        <v>68458.067999999999</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -9036,10 +9037,10 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
@@ -9082,10 +9083,10 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
@@ -9103,18 +9104,18 @@
       </c>
       <c r="K20" s="30">
         <f t="shared" si="2"/>
-        <v>0.43100000000000005</v>
+        <v>0.40100000000000008</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="3"/>
-        <v>71639.096000000005</v>
+        <v>66652.616000000009</v>
       </c>
       <c r="M20" s="5">
-        <v>0.38100000000000001</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="N20" s="3">
         <f t="shared" si="4"/>
-        <v>63328.296000000002</v>
+        <v>68314.775999999998</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -9266,10 +9267,10 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
@@ -9447,13 +9448,13 @@
         <v>11</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>9</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
@@ -9496,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
@@ -9517,18 +9518,18 @@
       </c>
       <c r="K29" s="30">
         <f t="shared" si="2"/>
-        <v>0.749</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="L29" s="3">
         <f t="shared" si="3"/>
-        <v>12808.648999999999</v>
+        <v>10072.489</v>
       </c>
       <c r="M29" s="5">
-        <v>0.251</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="N29" s="3">
         <f t="shared" si="4"/>
-        <v>4292.3509999999997</v>
+        <v>7028.5109999999995</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -9587,15 +9588,15 @@
       </c>
       <c r="C31">
         <f t="shared" ref="C31:D31" si="5">SUM(C2:C30)</f>
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D31">
         <f t="shared" si="5"/>
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E31">
         <f>SUM(E2:E30)</f>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F31">
         <f>SUM(C31:E31)</f>
@@ -9607,104 +9608,96 @@
       </c>
       <c r="I31" s="30">
         <f>J31/H31</f>
-        <v>0.45834846464193874</v>
+        <v>0.45742399695191416</v>
       </c>
       <c r="J31" s="3">
         <f>SUM(J2:J30)</f>
-        <v>2426411.5190000003</v>
+        <v>2421517.5590000004</v>
       </c>
       <c r="K31" s="30">
         <f>L31/H31</f>
-        <v>0.35880359793525046</v>
+        <v>0.35436767328810576</v>
       </c>
       <c r="L31" s="3">
         <f t="shared" ref="L31" si="6">SUM(L2:L30)</f>
-        <v>1899439.51</v>
+        <v>1875956.5500000003</v>
       </c>
       <c r="M31" s="30">
         <f>N31/H31</f>
-        <v>0.18284793742281086</v>
+        <v>0.18820832975998025</v>
       </c>
       <c r="N31" s="3">
         <f t="shared" ref="N31" si="7">SUM(N2:N30)</f>
-        <v>967962.97100000002</v>
+        <v>996339.89100000006</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="D33">
-        <f>E18</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E33">
-        <f>-E18</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <f t="shared" ref="F33:F37" si="8">B33-SUM(C33:E33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <f>E18</f>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>-1</v>
+        <f>-E18</f>
+        <v>-4</v>
       </c>
       <c r="F34">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="F34:F38" si="8">B34-SUM(C34:E34)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>-2</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
         <v>119</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <f>-C17</f>
         <v>-9</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <f>C17</f>
         <v>9</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <f>C31/B31</f>
-        <v>0.50488599348534202</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
       <c r="E36">
         <v>0</v>
       </c>
@@ -9713,53 +9706,78 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <f>D38/B38</f>
+        <f>C31/B31</f>
+        <v>0.50162866449511401</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f>D39/B39</f>
         <v>0.50159744408945683</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B38" s="1">
         <v>3</v>
       </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1">
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
         <v>3</v>
       </c>
-      <c r="E37" s="1">
-        <v>0</v>
-      </c>
-      <c r="F37" s="1">
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
         <v>58</v>
       </c>
-      <c r="B38">
-        <f>SUM(B31:B37)</f>
+      <c r="B39">
+        <f>SUM(B31:B38)</f>
         <v>313</v>
       </c>
-      <c r="C38">
-        <f>SUM(C31:C37)</f>
-        <v>145</v>
-      </c>
-      <c r="D38">
-        <f>SUM(D31:D37)</f>
+      <c r="C39">
+        <f>SUM(C31:C38)</f>
+        <v>138</v>
+      </c>
+      <c r="D39">
+        <f>SUM(D31:D38)</f>
         <v>157</v>
       </c>
-      <c r="E38">
-        <f>SUM(E31:E37)</f>
-        <v>11</v>
-      </c>
-      <c r="F38">
-        <f>SUM(C38:E38)</f>
+      <c r="E39">
+        <f>SUM(E31:E38)</f>
+        <v>18</v>
+      </c>
+      <c r="F39">
+        <f>SUM(C39:E39)</f>
         <v>313</v>
       </c>
     </row>
@@ -10183,13 +10201,13 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="50" t="s">
+      <c r="A30" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="50">
-        <v>0</v>
-      </c>
-      <c r="C30" s="50">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
@@ -10197,13 +10215,13 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="51" t="s">
+      <c r="A31" t="s">
         <v>146</v>
       </c>
-      <c r="B31" s="51">
+      <c r="B31">
         <v>3</v>
       </c>
-      <c r="C31" s="51">
+      <c r="C31">
         <v>3</v>
       </c>
       <c r="D31">
@@ -10211,13 +10229,13 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="51" t="s">
+      <c r="A32" t="s">
         <v>147</v>
       </c>
-      <c r="B32" s="51">
+      <c r="B32">
         <v>3</v>
       </c>
-      <c r="C32" s="51">
+      <c r="C32">
         <v>3</v>
       </c>
       <c r="D32">
@@ -10225,13 +10243,13 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="51" t="s">
+      <c r="A33" t="s">
         <v>148</v>
       </c>
-      <c r="B33" s="51">
+      <c r="B33">
         <v>6</v>
       </c>
-      <c r="C33" s="51">
+      <c r="C33">
         <v>6</v>
       </c>
       <c r="D33">
@@ -10239,13 +10257,13 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="51" t="s">
+      <c r="A34" t="s">
         <v>149</v>
       </c>
-      <c r="B34" s="51">
+      <c r="B34">
         <v>3</v>
       </c>
-      <c r="C34" s="51">
+      <c r="C34">
         <v>3</v>
       </c>
       <c r="D34">
@@ -10253,13 +10271,13 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="51" t="s">
+      <c r="A35" t="s">
         <v>150</v>
       </c>
-      <c r="B35" s="51">
+      <c r="B35">
         <v>4</v>
       </c>
-      <c r="C35" s="51">
+      <c r="C35">
         <v>4</v>
       </c>
       <c r="D35">

--- a/obsidian-notes/spreadsheets/us-elections.xlsx
+++ b/obsidian-notes/spreadsheets/us-elections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE9D927-B734-4CCB-AC5A-E52B924936EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFC8E0B-5D2E-4F2A-831C-84AEB0B73151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" tabRatio="774" firstSheet="4" activeTab="15" xr2:uid="{59FA0D2B-AA2F-47E7-9530-8606E48D7FD7}"/>
   </bookViews>
@@ -8171,7 +8171,7 @@
   <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
